--- a/Assets/EditorAssets/Tables/Config.xlsx
+++ b/Assets/EditorAssets/Tables/Config.xlsx
@@ -1453,7 +1453,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/Assets/EditorAssets/Tables/Config.xlsx
+++ b/Assets/EditorAssets/Tables/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>表名</t>
   </si>
@@ -54,16 +54,19 @@
     <t>tTableRoleData</t>
   </si>
   <si>
+    <t>UiTable.p</t>
+  </si>
+  <si>
+    <t>物品表</t>
+  </si>
+  <si>
+    <t>TableGoods</t>
+  </si>
+  <si>
+    <t>tTableItemData</t>
+  </si>
+  <si>
     <t>UiPackage.p</t>
-  </si>
-  <si>
-    <t>物品表</t>
-  </si>
-  <si>
-    <t>TableGoods</t>
-  </si>
-  <si>
-    <t>tTableItemData</t>
   </si>
   <si>
     <t>OutCodePath</t>
@@ -1453,7 +1456,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1530,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -1561,7 +1564,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -1570,30 +1573,30 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1601,10 +1604,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1629,422 +1632,422 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
